--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="861">
   <si>
     <t>anchor score</t>
   </si>
@@ -256,535 +256,535 @@
     <t>well</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
@@ -2962,10 +2962,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>0.8642857142857143</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K11">
         <v>0.7894736842105263</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>0.7792553191489362</v>
@@ -3594,28 +3594,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="K14">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
         <v>174</v>
       </c>
       <c r="M14">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3644,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>0.7173144876325088</v>
@@ -3694,7 +3694,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16">
         <v>0.7111111111111111</v>
@@ -3744,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>0.696969696969697</v>
@@ -3794,28 +3794,28 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="K18">
-        <v>0.696319018404908</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3847,13 +3847,13 @@
         <v>256</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3894,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>0.6588235294117647</v>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K21">
         <v>0.6129032258064516</v>
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K23">
         <v>0.5316455696202531</v>
@@ -4094,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>0.5238095238095238</v>
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K25">
         <v>0.50625</v>
@@ -4244,7 +4244,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K27">
         <v>0.4761904761904762</v>
@@ -4294,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K28">
         <v>0.4717444717444718</v>
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K31">
         <v>0.453125</v>
@@ -4494,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K32">
         <v>0.4526315789473684</v>
@@ -4694,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K36">
         <v>0.4375</v>
@@ -4794,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K38">
         <v>0.425531914893617</v>
@@ -4844,7 +4844,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K39">
         <v>0.4142857142857143</v>
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K40">
         <v>0.4090909090909091</v>
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K44">
         <v>0.3917525773195876</v>
@@ -5394,7 +5394,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K50">
         <v>0.3782051282051282</v>
@@ -5494,7 +5494,7 @@
         <v>31</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K52">
         <v>0.3714285714285714</v>
@@ -5544,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K53">
         <v>0.3703703703703703</v>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K55">
         <v>0.3478260869565217</v>
@@ -5694,7 +5694,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K56">
         <v>0.3442622950819672</v>
@@ -6144,7 +6144,7 @@
         <v>16</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K65">
         <v>0.3300733496332519</v>
@@ -6294,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K68">
         <v>0.3152173913043478</v>
@@ -6444,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K71">
         <v>0.3</v>
@@ -6494,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K72">
         <v>0.2990654205607476</v>
@@ -6544,7 +6544,7 @@
         <v>12</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K73">
         <v>0.2971751412429379</v>
@@ -6594,7 +6594,7 @@
         <v>21</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K74">
         <v>0.2945736434108527</v>
@@ -6623,28 +6623,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1692307692307692</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K75">
         <v>0.2916666666666667</v>
@@ -6676,25 +6676,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K76">
         <v>0.2916666666666667</v>
@@ -6726,22 +6726,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>286</v>
@@ -6823,13 +6823,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1666666666666667</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6841,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K79">
         <v>0.2868217054263566</v>
@@ -6873,13 +6873,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1621621621621622</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>288</v>
@@ -6923,13 +6923,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1612903225806452</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>289</v>
@@ -7023,25 +7023,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>291</v>
@@ -7076,25 +7076,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E84">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K84">
         <v>0.2741935483870968</v>
@@ -7126,25 +7126,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K85">
         <v>0.2701793721973094</v>
@@ -7173,13 +7173,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>292</v>
@@ -7226,25 +7226,25 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K87">
         <v>0.2653061224489796</v>
@@ -7273,25 +7273,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1304347826086956</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>293</v>
@@ -7323,13 +7323,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1282051282051282</v>
+        <v>0.125</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>294</v>
@@ -7376,10 +7376,10 @@
         <v>0.125</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>295</v>
@@ -7426,22 +7426,22 @@
         <v>0.125</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>296</v>
@@ -7476,25 +7476,25 @@
         <v>0.125</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E92">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="F92">
-        <v>0.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K92">
         <v>0.2592592592592592</v>
@@ -7523,25 +7523,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E93">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F93">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>297</v>
@@ -7573,25 +7573,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1238938053097345</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C94">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>298</v>
@@ -7623,28 +7623,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K95">
         <v>0.2535211267605634</v>
@@ -7673,25 +7673,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1212121212121212</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>299</v>
@@ -7723,28 +7723,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K97">
         <v>0.25</v>
@@ -7773,28 +7773,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K98">
         <v>0.25</v>
@@ -7823,13 +7823,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>300</v>
@@ -7873,25 +7873,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>9</v>
-      </c>
-      <c r="E100">
-        <v>0.78</v>
-      </c>
-      <c r="F100">
-        <v>0.22</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>17</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>301</v>
@@ -7923,25 +7923,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>302</v>
@@ -7973,7 +7973,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K102">
         <v>0.249266862170088</v>
@@ -8023,28 +8023,28 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K103">
         <v>0.2454545454545455</v>
@@ -8094,7 +8094,7 @@
         <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K104">
         <v>0.2446808510638298</v>
@@ -8179,16 +8179,16 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>10</v>
@@ -8226,22 +8226,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>305</v>
@@ -8273,28 +8273,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K108">
         <v>0.2405660377358491</v>
@@ -8323,28 +8323,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K109">
         <v>0.2397260273972603</v>
@@ -8373,13 +8373,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K110">
         <v>0.2363636363636364</v>
@@ -8429,16 +8429,16 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>11</v>
@@ -8529,16 +8529,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>11</v>
@@ -8573,25 +8573,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08333333333333333</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>309</v>
@@ -8623,25 +8623,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>310</v>
@@ -8673,25 +8673,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07777777777777778</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>311</v>
@@ -8723,25 +8723,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="F117">
-        <v>0.02000000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>312</v>
@@ -8773,25 +8773,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07407407407407407</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>313</v>
@@ -8823,25 +8823,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F119">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>314</v>
@@ -8873,25 +8873,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.07352941176470588</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>315</v>
@@ -8929,13 +8929,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -8979,22 +8979,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>13</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K122">
         <v>0.2296296296296296</v>
@@ -9023,25 +9023,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E123">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F123">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>317</v>
@@ -9073,25 +9073,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F124">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>318</v>
@@ -9123,25 +9123,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F125">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>319</v>
@@ -9179,13 +9179,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9226,22 +9226,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>14</v>
-      </c>
-      <c r="E127">
-        <v>0.86</v>
-      </c>
-      <c r="F127">
-        <v>0.14</v>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>28</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>321</v>
@@ -9273,25 +9273,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>322</v>
@@ -9323,7 +9323,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>323</v>
@@ -9376,22 +9376,22 @@
         <v>0.0625</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>324</v>
@@ -9423,7 +9423,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9441,10 +9441,10 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K131">
         <v>0.21875</v>
@@ -9473,25 +9473,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>325</v>
@@ -9523,7 +9523,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9541,10 +9541,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K133">
         <v>0.2142857142857143</v>
@@ -9573,25 +9573,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>326</v>
@@ -9644,7 +9644,7 @@
         <v>17</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K135">
         <v>0.2139837398373984</v>
@@ -9673,25 +9673,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>327</v>
@@ -9723,28 +9723,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K137">
         <v>0.2112676056338028</v>
@@ -9779,22 +9779,22 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K138">
         <v>0.2112676056338028</v>
@@ -9823,25 +9823,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05263157894736842</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>328</v>
@@ -9873,25 +9873,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>329</v>
@@ -9923,25 +9923,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05208333333333334</v>
+        <v>0.05</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>330</v>
@@ -9979,16 +9979,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>19</v>
@@ -10023,25 +10023,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>332</v>
@@ -10073,25 +10073,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F144">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>333</v>
@@ -10123,25 +10123,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04867256637168142</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>334</v>
@@ -10173,25 +10173,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>335</v>
@@ -10223,25 +10223,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F147">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>336</v>
@@ -10273,28 +10273,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K148">
         <v>0.2</v>
@@ -10323,25 +10323,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>337</v>
@@ -10373,25 +10373,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E150">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.4</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>338</v>
@@ -10429,13 +10429,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10476,22 +10476,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>340</v>
@@ -10529,16 +10529,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>22</v>
@@ -10573,25 +10573,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>342</v>
@@ -10623,25 +10623,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>343</v>
@@ -10673,25 +10673,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>344</v>
@@ -10723,25 +10723,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E157">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>345</v>
@@ -10773,25 +10773,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04081632653061224</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F158">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>346</v>
@@ -10823,25 +10823,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>347</v>
@@ -10873,25 +10873,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03846153846153846</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E160">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>77</v>
@@ -10923,28 +10923,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K161">
         <v>0.1984732824427481</v>
@@ -10973,28 +10973,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03658536585365853</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K162">
         <v>0.1965811965811966</v>
@@ -11029,13 +11029,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -11079,16 +11079,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>27</v>
@@ -11123,25 +11123,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>350</v>
@@ -11173,28 +11173,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K166">
         <v>0.1904761904761905</v>
@@ -11223,7 +11223,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>351</v>
@@ -11273,25 +11273,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E168">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F168">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>352</v>
@@ -11329,16 +11329,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>30</v>
@@ -11373,25 +11373,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>354</v>
@@ -11423,25 +11423,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>355</v>
@@ -11473,28 +11473,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E172">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.38</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K172">
         <v>0.1846153846153846</v>
@@ -11523,25 +11523,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0303030303030303</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E173">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>356</v>
@@ -11573,25 +11573,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>357</v>
@@ -11623,25 +11623,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02985074626865672</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F175">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>358</v>
@@ -11679,13 +11679,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -11729,13 +11729,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -11773,25 +11773,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02857142857142857</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>361</v>
@@ -11823,25 +11823,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>362</v>
@@ -11873,25 +11873,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02803738317757009</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F180">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>363</v>
@@ -11923,25 +11923,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F181">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>364</v>
@@ -11973,25 +11973,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>365</v>
@@ -12023,7 +12023,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>366</v>
@@ -12073,13 +12073,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -12091,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K184">
         <v>0.1774193548387097</v>
@@ -12123,25 +12123,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>367</v>
@@ -12176,25 +12176,25 @@
         <v>0.025</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K186">
         <v>0.1764705882352941</v>
@@ -12223,25 +12223,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.025</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>368</v>
@@ -12273,25 +12273,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>369</v>
@@ -12323,28 +12323,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02491103202846975</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="C189">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K189">
         <v>0.1764705882352941</v>
@@ -12373,25 +12373,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>370</v>
@@ -12423,28 +12423,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02352941176470588</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K191">
         <v>0.1739130434782609</v>
@@ -12473,28 +12473,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K192">
         <v>0.171875</v>
@@ -12523,25 +12523,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>371</v>
@@ -12573,28 +12573,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K194">
         <v>0.1707317073170732</v>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>0.9399999999999999</v>
@@ -12644,7 +12644,7 @@
         <v>45</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K195">
         <v>0.1688311688311688</v>
@@ -12673,25 +12673,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>372</v>
@@ -12723,25 +12723,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>373</v>
@@ -12773,25 +12773,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02150537634408602</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E198">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>374</v>
@@ -12823,28 +12823,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02127659574468085</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K199">
         <v>0.1666666666666667</v>
@@ -12873,25 +12873,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>375</v>
@@ -12923,25 +12923,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02013422818791946</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>376</v>
@@ -12973,25 +12973,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>377</v>
@@ -13023,25 +13023,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>378</v>
@@ -13073,25 +13073,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F204">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>379</v>
@@ -13123,25 +13123,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>380</v>
@@ -13173,25 +13173,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>381</v>
@@ -13229,13 +13229,13 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
@@ -13273,25 +13273,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01851851851851852</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>383</v>
@@ -13323,25 +13323,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01851851851851852</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E209">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F209">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>384</v>
@@ -13373,13 +13373,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01829268292682927</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E210">
         <v>0.9399999999999999</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>385</v>
@@ -13426,22 +13426,22 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E211">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F211">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>386</v>
@@ -13479,13 +13479,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -13523,25 +13523,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01754385964912281</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>388</v>
@@ -13573,25 +13573,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01754385964912281</v>
+        <v>0.015625</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>389</v>
@@ -13623,25 +13623,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>390</v>
@@ -13673,25 +13673,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.015625</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>391</v>
@@ -13723,13 +13723,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01538461538461539</v>
+        <v>0.015</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E217">
         <v>0.93</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>392</v>
@@ -13773,25 +13773,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01538461538461539</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>393</v>
@@ -13823,25 +13823,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.015</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>394</v>
@@ -13873,13 +13873,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01477832512315271</v>
+        <v>0.01426307448494453</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D220">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="E220">
         <v>0.97</v>
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>200</v>
+        <v>622</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>395</v>
@@ -13923,25 +13923,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01449275362318841</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>68</v>
+        <v>651</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>396</v>
@@ -13973,25 +13973,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01426307448494453</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="E222">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F222">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>622</v>
+        <v>74</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>397</v>
@@ -14023,25 +14023,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01363636363636364</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C223">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>398</v>
@@ -14073,28 +14073,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E224">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F224">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K224">
         <v>0.1648351648351648</v>
@@ -14123,25 +14123,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0131578947368421</v>
+        <v>0.01306655777868518</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>75</v>
+        <v>2417</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>399</v>
@@ -14173,25 +14173,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E226">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>400</v>
@@ -14223,28 +14223,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01306655777868518</v>
+        <v>0.0125</v>
       </c>
       <c r="C227">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>690</v>
+        <v>10</v>
       </c>
       <c r="E227">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F227">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>2417</v>
+        <v>79</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K227">
         <v>0.1612903225806452</v>
@@ -14273,25 +14273,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01298701298701299</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>401</v>
@@ -14323,28 +14323,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0125</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K229">
         <v>0.1581196581196581</v>
@@ -14373,25 +14373,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01212121212121212</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>402</v>
@@ -14423,25 +14423,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01123595505617977</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>403</v>
@@ -14473,25 +14473,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01111111111111111</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>89</v>
+        <v>588</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>404</v>
@@ -14523,28 +14523,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01052631578947368</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K233">
         <v>0.1558441558441558</v>
@@ -14573,25 +14573,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0101010101010101</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>588</v>
+        <v>111</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>405</v>
@@ -14623,25 +14623,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.009345794392523364</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E235">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F235">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>406</v>
@@ -14673,25 +14673,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008928571428571428</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F236">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>407</v>
@@ -14723,28 +14723,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.008403361344537815</v>
+        <v>0.008</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K237">
         <v>0.1538461538461539</v>
@@ -14773,25 +14773,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.00819672131147541</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>121</v>
+        <v>426</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>408</v>
@@ -14823,25 +14823,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.008</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>124</v>
+        <v>942</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>409</v>
@@ -14873,25 +14873,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.006993006993006993</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E240">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>426</v>
+        <v>168</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>410</v>
@@ -14923,28 +14923,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.006329113924050633</v>
+        <v>0.005399568034557235</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D241">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="E241">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="F241">
-        <v>0.23</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>942</v>
+        <v>1842</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K241">
         <v>0.1515151515151515</v>
@@ -14973,25 +14973,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.005917159763313609</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>411</v>
@@ -15023,25 +15023,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.005399568034557235</v>
+        <v>0.004920049200492005</v>
       </c>
       <c r="C243">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D243">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="E243">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F243">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>1842</v>
+        <v>809</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>412</v>
@@ -15073,7 +15073,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.005291005291005291</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15091,10 +15091,10 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K244">
         <v>0.1495327102803738</v>
@@ -15123,25 +15123,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.004920049200492005</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>809</v>
+        <v>295</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>413</v>
@@ -15173,25 +15173,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.003968253968253968</v>
+        <v>0.00186219739292365</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>251</v>
+        <v>536</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>414</v>
@@ -15223,25 +15223,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.003378378378378379</v>
+        <v>0.0018001800180018</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="E247">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F247">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>295</v>
+        <v>1109</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>415</v>
@@ -15273,28 +15273,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.00186219739292365</v>
+        <v>0.001311905542800918</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="E248">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F248">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>536</v>
+        <v>3045</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K248">
         <v>0.1454545454545454</v>
@@ -15319,30 +15319,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.0018001800180018</v>
-      </c>
-      <c r="C249">
-        <v>2</v>
-      </c>
-      <c r="D249">
-        <v>52</v>
-      </c>
-      <c r="E249">
-        <v>0.96</v>
-      </c>
-      <c r="F249">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>1109</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>416</v>
       </c>
@@ -15369,30 +15345,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.001311905542800918</v>
-      </c>
-      <c r="C250">
-        <v>4</v>
-      </c>
-      <c r="D250">
-        <v>156</v>
-      </c>
-      <c r="E250">
-        <v>0.97</v>
-      </c>
-      <c r="F250">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>3045</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>417</v>
       </c>
@@ -15732,7 +15684,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K263">
         <v>0.1428571428571428</v>
@@ -15888,7 +15840,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K269">
         <v>0.1386861313868613</v>
@@ -15914,7 +15866,7 @@
     </row>
     <row r="270" spans="10:17">
       <c r="J270" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K270">
         <v>0.1364275668073136</v>
@@ -16096,7 +16048,7 @@
     </row>
     <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K277">
         <v>0.1333333333333333</v>
@@ -16278,7 +16230,7 @@
     </row>
     <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K284">
         <v>0.1304347826086956</v>
@@ -16304,7 +16256,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K285">
         <v>0.1296296296296296</v>
@@ -16330,7 +16282,7 @@
     </row>
     <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K286">
         <v>0.1296296296296296</v>
@@ -17578,7 +17530,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K334">
         <v>0.1224489795918367</v>
@@ -17604,7 +17556,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K335">
         <v>0.1212121212121212</v>
@@ -18228,7 +18180,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K359">
         <v>0.1111111111111111</v>
@@ -18514,7 +18466,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K370">
         <v>0.1052631578947368</v>
@@ -18800,7 +18752,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K381">
         <v>0.1022727272727273</v>
@@ -18826,7 +18778,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K382">
         <v>0.1</v>
@@ -19580,7 +19532,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K411">
         <v>0.09090909090909091</v>
@@ -19710,7 +19662,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K416">
         <v>0.09090909090909091</v>
@@ -20204,7 +20156,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K435">
         <v>0.08695652173913043</v>
@@ -20230,7 +20182,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K436">
         <v>0.08695652173913043</v>
@@ -20256,7 +20208,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K437">
         <v>0.08695652173913043</v>
@@ -20932,7 +20884,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K463">
         <v>0.08</v>
@@ -21322,7 +21274,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K478">
         <v>0.07246376811594203</v>
@@ -21816,7 +21768,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K497">
         <v>0.0684931506849315</v>
@@ -22050,7 +22002,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K506">
         <v>0.06666666666666667</v>
@@ -22180,7 +22132,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K511">
         <v>0.06666666666666667</v>
@@ -22310,7 +22262,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K516">
         <v>0.06521739130434782</v>
@@ -22440,7 +22392,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K521">
         <v>0.06382978723404255</v>
@@ -22492,7 +22444,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K523">
         <v>0.06257242178447277</v>
@@ -22544,7 +22496,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K525">
         <v>0.0625</v>
@@ -23454,7 +23406,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K560">
         <v>0.0546875</v>
@@ -23584,7 +23536,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K565">
         <v>0.05263157894736842</v>
@@ -23818,7 +23770,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K574">
         <v>0.05128205128205128</v>
@@ -23870,7 +23822,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K576">
         <v>0.05102040816326531</v>
@@ -24260,7 +24212,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K591">
         <v>0.0475445730372224</v>
@@ -24494,7 +24446,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K600">
         <v>0.04347826086956522</v>
@@ -24702,7 +24654,7 @@
     </row>
     <row r="608" spans="10:17">
       <c r="J608" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K608">
         <v>0.04314063848144953</v>
@@ -24728,7 +24680,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K609">
         <v>0.0425531914893617</v>
@@ -25456,7 +25408,7 @@
     </row>
     <row r="637" spans="10:17">
       <c r="J637" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K637">
         <v>0.03571428571428571</v>
@@ -25482,7 +25434,7 @@
     </row>
     <row r="638" spans="10:17">
       <c r="J638" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K638">
         <v>0.03571428571428571</v>
@@ -25508,7 +25460,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K639">
         <v>0.03550295857988166</v>
@@ -25846,7 +25798,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K652">
         <v>0.03225806451612903</v>
@@ -26002,7 +25954,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K658">
         <v>0.03076923076923077</v>
@@ -26314,7 +26266,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K670">
         <v>0.02857142857142857</v>
@@ -26704,7 +26656,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K685">
         <v>0.025</v>
@@ -26860,7 +26812,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K691">
         <v>0.02362204724409449</v>
@@ -27120,7 +27072,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K701">
         <v>0.02079002079002079</v>
@@ -27302,7 +27254,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K708">
         <v>0.01851851851851852</v>
@@ -27718,7 +27670,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K724">
         <v>0.01470588235294118</v>
